--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>99,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>97,03%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>97,58%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>98,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>97,43%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>98,49%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>97,27%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>98,29%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>97,67%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>97,42%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>99,07%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>98,94%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>97,49%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>96,91%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>98,43%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>97,63%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>98,33%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>97,59%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>97,63%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,33; 99,44</t>
+          <t>92,3; 98,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,77; 99,47</t>
+          <t>95,05; 99,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,62; 99,44</t>
+          <t>88,02; 99,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,18; 99,47</t>
+          <t>90,01; 99,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,85; 99,07</t>
+          <t>97,03; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,14; 100,0</t>
+          <t>91,83; 99,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,75; 100</t>
+          <t>94,12; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>96,31; 99,64</t>
+          <t>88,72; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,82; 99,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,79; 100,0</t>
+          <t>95,01; 99,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93,52; 99,41</t>
+          <t>93,46; 98,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,38; 99,73</t>
+          <t>94,57; 99,43</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,35; 99,28</t>
+          <t>94,04; 100,0</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,04</t>
+          <t>93,75; 99,25</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>94,83; 99,3</t>
+          <t>92,55; 99,17</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>97,18; 99,69</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>93,62; 99,0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>93,42; 98,66</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>96,43; 99,43</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>94,72; 99,11</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>95,57; 99,62</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>93,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89,51%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>97,66%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>96,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>94,89%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>95,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>94,87%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>95,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>94,88%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>95,45%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>93,64%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>92,73%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>94,05%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>95,47%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>93,81%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,71%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>94,06%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>92,21%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,32; 95,72</t>
+          <t>85,85; 95,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,65; 97,58</t>
+          <t>90,62; 97,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,5; 95,8</t>
+          <t>88,89; 95,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,42; 95,63</t>
+          <t>88,13; 95,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,92; 97,36</t>
+          <t>86,67; 96,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,94; 99,14</t>
+          <t>86,75; 97,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,34; 98,5</t>
+          <t>82,24; 94,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,32; 97,33</t>
+          <t>94,63; 99,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,46; 95,95</t>
+          <t>91,81; 98,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 97,91</t>
+          <t>91,67; 97,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,27; 96,95</t>
+          <t>89,21; 95,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>92,34; 97,29</t>
+          <t>88,0; 95,85</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 95,62</t>
+          <t>88,47; 97,98</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>90,12; 94,94</t>
+          <t>91,07; 97,56</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>89,63; 96,71</t>
+          <t>90,7; 97,03</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>92,71; 97,48</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>91,1; 95,94</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>90,04; 94,91</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>89,2; 95,51</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>89,69; 96,48</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>89,07; 95,33</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>89,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>92,13%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>89,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>97,2%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>98,74%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>96,44%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>95,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>97,4%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>95,16%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>95,76%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>94,27%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>94,46%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>95,44%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>94,13%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>94,34%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>92,46%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>94,62%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>92,21%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,75</t>
+          <t>89,58; 95,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,8; 95,61</t>
+          <t>88,42; 95,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,91; 94,61</t>
+          <t>88,09; 94,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,0; 95,76</t>
+          <t>89,53; 95,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,54; 95,14</t>
+          <t>79,86; 93,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,52; 98,66</t>
+          <t>87,33; 95,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,91; 99,68</t>
+          <t>84,15; 93,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,96; 97,99</t>
+          <t>94,92; 98,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,48; 97,56</t>
+          <t>96,74; 99,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,6; 99,04</t>
+          <t>93,8; 97,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,97; 96,59</t>
+          <t>93,09; 97,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,79; 97,26</t>
+          <t>92,37; 97,42</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>92,31; 95,91</t>
+          <t>94,3; 99,11</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>92,7; 96,05</t>
+          <t>90,81; 97,2</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,59</t>
+          <t>93,07; 96,71</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>93,51; 97,05</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>92,07; 95,7</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>91,98; 95,97</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>86,69; 94,91</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>92,04; 96,69</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>88,87; 94,58</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>92,01%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>91,78%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>95,14%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>95,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>94,51%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>95,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>95,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>94,49%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>94,05%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>92,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>94,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>93,84%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>92,53%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>91,51%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>92,48%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>91,57%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>93,96%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>93,07%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>91,03%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,38; 95,37</t>
+          <t>89,39; 95,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,81; 95,37</t>
+          <t>87,88; 95,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 93,61</t>
+          <t>86,67; 93,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,64; 91,17</t>
+          <t>82,88; 91,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,13; 94,77</t>
+          <t>87,41; 94,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,87; 97,0</t>
+          <t>87,21; 94,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 97,19</t>
+          <t>84,6; 93,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,65; 96,61</t>
+          <t>92,14; 97,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,52; 96,91</t>
+          <t>91,91; 96,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,97</t>
+          <t>91,4; 96,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,03; 95,67</t>
+          <t>91,92; 96,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,33; 95,65</t>
+          <t>93,26; 97,79</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,37; 94,48</t>
+          <t>91,09; 97,01</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>88,35; 93,43</t>
+          <t>89,25; 95,9</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>90,37; 95,2</t>
+          <t>91,81; 95,57</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>91,02; 95,76</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>90,13; 94,39</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>88,82; 93,7</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>91,5; 95,84</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>90,52; 95,1</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>88,13; 93,52</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>90,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>86,68%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>82,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>87,84%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>86,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>86,21%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>86,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87,95%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>87,71%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>86,19%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>89,93%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>88,4%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>88,47%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>88,19%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>87,21%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>88,31%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>88,46%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>88,18%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>89,0%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>87,22%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>84,46%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,01; 95,31</t>
+          <t>85,85; 95,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,79; 94,95</t>
+          <t>82,03; 94,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,5; 94,28</t>
+          <t>84,38; 94,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,54; 93,57</t>
+          <t>84,94; 93,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,1; 91,38</t>
+          <t>84,02; 94,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,02; 91,47</t>
+          <t>80,48; 91,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,71; 90,2</t>
+          <t>77,04; 87,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,48; 90,52</t>
+          <t>82,67; 91,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,65; 90,14</t>
+          <t>80,42; 89,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81,88; 91,55</t>
+          <t>80,68; 90,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86,68; 92,73</t>
+          <t>80,37; 90,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>83,86; 91,39</t>
+          <t>82,0; 92,03</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>84,31; 91,32</t>
+          <t>81,66; 91,46</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>84,6; 91,12</t>
+          <t>79,62; 90,25</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>83,76; 90,32</t>
+          <t>86,59; 92,6</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>83,69; 91,26</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>84,41; 91,29</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>84,41; 91,02</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>84,59; 91,97</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>83,37; 90,32</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>80,62; 87,67</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>87,13%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>85,5%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>80,17%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>76,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>75,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>63,59%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>70,1%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>83,46%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>82,85%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>82,94%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>81,42%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>72,84%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>82,44%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>82,92%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>81,38%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>78,83%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>76,72%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,42; 92,01</t>
+          <t>82,77; 91,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,45; 94,22</t>
+          <t>84,8; 93,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,61; 94,14</t>
+          <t>85,74; 94,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,12; 93,3</t>
+          <t>84,45; 93,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,12; 90,79</t>
+          <t>79,99; 92,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,0; 84,82</t>
+          <t>78,58; 91,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,98; 82,75</t>
+          <t>79,13; 90,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,65; 82,47</t>
+          <t>75,29; 84,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,3; 81,62</t>
+          <t>70,62; 82,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>53,21; 73,17</t>
+          <t>72,4; 82,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,03; 86,44</t>
+          <t>69,58; 80,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>78,63; 86,55</t>
+          <t>64,95; 79,78</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>79,13; 86,61</t>
+          <t>53,32; 72,47</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>76,94; 85,28</t>
+          <t>61,81; 77,43</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>65,74; 78,34</t>
+          <t>79,77; 86,7</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>78,16; 85,98</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>79,36; 86,11</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>77,04; 84,94</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>73,35; 83,14</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>65,73; 79,14</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>70,8; 81,23</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>91,54%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>91,11%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>89,39%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>92,16%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>91,8%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>91,1%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>91,06%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>90,17%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>87,96%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>88,32%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>92,35%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>92,45%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>91,65%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>90,94%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>92,28%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>91,52%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>90,82%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>90,6%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>89,53%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>88,85%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,96; 93,98</t>
+          <t>90,82; 94,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,47; 94,54</t>
+          <t>91,27; 94,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,57; 93,49</t>
+          <t>90,02; 93,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89,99; 93,04</t>
+          <t>89,88; 93,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,03; 92,82</t>
+          <t>88,97; 93,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,73; 93,61</t>
+          <t>89,16; 92,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,2</t>
+          <t>87,33; 91,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,51; 92,58</t>
+          <t>90,68; 93,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,61; 91,72</t>
+          <t>90,0; 93,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>84,51; 90,36</t>
+          <t>89,58; 92,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,24; 93,42</t>
+          <t>88,66; 91,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,25; 93,56</t>
+          <t>87,54; 91,61</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,5; 92,62</t>
+          <t>85,1; 90,61</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,9; 92,05</t>
+          <t>85,93; 90,28</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>87,48; 91,01</t>
+          <t>91,33; 93,43</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>91,0; 93,3</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>90,3; 92,64</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>89,56; 91,84</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>89,08; 92,02</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>87,42; 91,07</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>86,96; 90,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>499026</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>491768</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>503446</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>492465</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>467807</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40826</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43583</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>451658</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>468797</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>507116</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>499946</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>465719</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36760</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>37656</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>950684</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>960565</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1010562</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>992411</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>933526</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>77587</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>81238</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>473469; 507688</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>477205; 499068</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>459148; 517962</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>459143; 506617</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>457162; 471158</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38639; 41676</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41475; 44064</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>410644; 462867</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>489196; 512917</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>480356; 508460</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>451343; 474508</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35170; 37398</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36144; 38264</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>903179; 967716</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>943486; 967897</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>970402; 1026157</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>956662; 1010373</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>914507; 942964</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>75280; 78768</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>78954; 82306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>520127</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>543654</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>524253</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>549341</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>537874</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46529</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43863</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>506726</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>499217</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>482824</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>481364</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>468950</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>44785</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43750</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1026853</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1042871</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1007077</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1030705</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1006824</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>91315</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>87612</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>483713; 539460</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>519526; 560286</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>502683; 542788</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>523823; 569483</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>502566; 557751</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43268; 48592</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40298; 46167</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>490973; 514318</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>476567; 510780</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>465690; 493600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>461546; 495053</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>444482; 484152</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>41762; 46250</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>41901; 44886</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>981575; 1050116</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1012747; 1064834</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>978008; 1029954</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1001037; 1055200</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>967779; 1036223</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>87073; 93667</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>84628; 90571</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>629004</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>632407</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>622153</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>631703</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>601159</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55472</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54604</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>674753</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>700259</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>692943</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>683193</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>684117</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>52514</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>51595</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1303757</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1332666</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1315097</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1314897</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1285276</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>107985</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>106199</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>605416; 647721</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>606891; 652744</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>597784; 642285</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>608843; 649216</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>537221; 631522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52579; 57370</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51137; 56881</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>658939; 684551</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>686876; 707540</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>673887; 703835</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>664366; 695573</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>662693; 698909</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>50841; 53440</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>49403; 52881</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1275142; 1324987</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1305762; 1355181</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1286217; 1336924</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1281981; 1337645</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1205155; 1319329</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>105048; 110345</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>102356; 108931</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>592878</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>597457</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>582927</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>560600</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>600760</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53479</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50968</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>669075</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>651219</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>635614</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>627122</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>634125</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49540</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>49592</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1261954</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1248677</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1218542</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1187722</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1234885</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>103020</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>100559</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>570688; 608426</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>566780; 616211</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>558322; 602555</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>528131; 582272</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>570726; 619223</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50814; 55296</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48190; 52988</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>648016; 682912</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>630139; 664946</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>615455; 649352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>606579; 638665</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>616852; 646788</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>47753; 50862</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>47761; 51317</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1231855; 1282279</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1211077; 1274213</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1187483; 1243673</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1152078; 1215444</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1202571; 1259678</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100201; 105271</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>97357; 103309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>470896</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>449966</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>456878</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>445769</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>446018</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38562</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37306</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>441342</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>436942</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>433924</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>443612</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>454633</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>42600</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>40009</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>912238</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>886909</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>890801</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>889381</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>900650</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>81163</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>77315</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>439495; 488625</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>406291; 468718</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>425167; 474915</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>419150; 463143</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>415951; 465580</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35805; 40621</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34757; 39665</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>415349; 460426</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>409406; 457715</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>405944; 454063</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>414034; 464124</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>423853; 475717</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>39663; 44423</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>36962; 41896</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>878308; 939291</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>840593; 916563</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>850044; 919332</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>851348; 918035</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>856034; 930664</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>77578; 84054</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>73801; 80248</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>480464</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>489129</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>475094</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>472043</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>490123</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39654</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39234</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>586061</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>551972</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>537480</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>522223</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>528896</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>40521</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>44633</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1066524</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1041100</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1012575</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>994266</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1019018</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>80175</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>83867</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>452631; 501341</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>462331; 511355</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>451227; 494949</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>446774; 493650</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>449931; 519579</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>36445; 42209</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36118; 41502</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>550462; 617901</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>506824; 590391</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>503068; 573043</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>481987; 557478</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>474193; 582487</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>33978; 46180</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>39359; 49303</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1019430; 1107937</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>987161; 1085921</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>969045; 1051572</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>941144; 1037726</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>948071; 1074693</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>72366; 87137</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>77401; 88797</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1249.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1067.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1238.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1216.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>831.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1484.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1242.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1518.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1168.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1004.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2733.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2309.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2746.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2734.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>2118.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1835.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1803.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3192395</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3204382</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3164750</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3151923</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3143741</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>274522</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>269556</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3329615</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3308407</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3289902</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3257459</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3236439</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>266722</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>267234</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>6522010</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6512789</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>6454652</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>6409382</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>6380180</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>541244</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>536790</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3132865; 3243433</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3146144; 3252256</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3096906; 3209458</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3095850; 3206790</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3055219; 3202362</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>268648; 279788</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>263343; 275319</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3276152; 3378306</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3249156; 3363448</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3236252; 3338485</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3203024; 3309265</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3158704; 3305619</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>258047; 274756</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>259996; 273169</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6450238; 6598447</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6422415; 6584740</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6368396; 6533707</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>6320033; 6481443</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>6273489; 6480160</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>528509; 550549</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>525331; 544754</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>